--- a/Class Demo Files/Excel Ch2b/VLOOKUP and IF.xlsx
+++ b/Class Demo Files/Excel Ch2b/VLOOKUP and IF.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Allen\BUS140 OUT\Class Demo Files\Excel Ch2b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\BUS 140\BUS-140\Class Demo Files\Excel Ch2b\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,8 +87,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -135,14 +136,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -150,6 +150,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -434,7 +436,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,20 +447,20 @@
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -469,11 +471,17 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="7">
+        <f>VLOOKUP(B2,$A$11:$B$15,2)</f>
+        <v>1000</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7">
+        <f>IF(D2="Y",C2+$A$18,C2)</f>
+        <v>1500</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -482,11 +490,17 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:C7" si="0">VLOOKUP(B3,$A$11:$B$15,2)</f>
+        <v>5000</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E7" si="1">IF(D3="Y",C3+$A$18,C3)</f>
+        <v>5500</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -495,11 +509,17 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="7">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -508,11 +528,17 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -521,11 +547,17 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -534,20 +566,26 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -555,7 +593,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="8">
         <v>125</v>
       </c>
     </row>
@@ -563,7 +601,7 @@
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="8">
         <v>1000</v>
       </c>
     </row>
@@ -571,7 +609,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="8">
         <v>5000</v>
       </c>
     </row>
@@ -579,7 +617,7 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="8">
         <v>4000</v>
       </c>
     </row>
@@ -587,7 +625,7 @@
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="8">
         <v>250</v>
       </c>
     </row>
